--- a/data/trans_dic/P24D-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P24D-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.5609266238901587</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.4639274317267928</v>
+        <v>0.463927431726793</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3800085869149427</v>
@@ -697,7 +697,7 @@
         <v>0.5531273762132526</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4722623654140279</v>
+        <v>0.4722623654140281</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3588093837852336</v>
+        <v>0.3663454891932365</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4780620277535917</v>
+        <v>0.4708742540137876</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4617448033099011</v>
+        <v>0.4597366097778671</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3590491822997355</v>
+        <v>0.3641216659217173</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2855135094497995</v>
+        <v>0.2841474953585431</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4223138423708648</v>
+        <v>0.4300838194214527</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4138362411758814</v>
+        <v>0.4283182485729465</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3862156201025488</v>
+        <v>0.3827239005705663</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3498713029504351</v>
+        <v>0.3545714518825971</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.482161081972593</v>
+        <v>0.4784730595245299</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4713383347854112</v>
+        <v>0.4759200756691007</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3974951271658618</v>
+        <v>0.3927578573963031</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5270650255783931</v>
+        <v>0.5224561209884475</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.645708739350302</v>
+        <v>0.646476936189367</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6514527674175414</v>
+        <v>0.6600042443846986</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5624372717343015</v>
+        <v>0.5632404360833202</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4762943259491439</v>
+        <v>0.4840031482422575</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6327906025839595</v>
+        <v>0.6416953524497842</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6578348298637757</v>
+        <v>0.6695975185233832</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5807523108538351</v>
+        <v>0.5777014801412704</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4897755663325905</v>
+        <v>0.4831088796896488</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6146998165755303</v>
+        <v>0.6119819354506809</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6333223893949357</v>
+        <v>0.6353803746351632</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.538684514985592</v>
+        <v>0.5456101602937071</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.4284625151661298</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4311909997454688</v>
+        <v>0.4311909997454687</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3436836282125806</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.244024417160766</v>
+        <v>0.2419200241371565</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4339261057697505</v>
+        <v>0.453303116113978</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4002120557872634</v>
+        <v>0.3988684835323253</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2862626955167531</v>
+        <v>0.2917239505824583</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2869113557386974</v>
+        <v>0.2812582417820463</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5169453210035795</v>
+        <v>0.5108245446554917</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3320411226868876</v>
+        <v>0.3338853746566299</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3294586220824098</v>
+        <v>0.3382484357478837</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2841535198325593</v>
+        <v>0.2869586500230041</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5058500719217327</v>
+        <v>0.5027705077947703</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3883982710785285</v>
+        <v>0.3982027732663904</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3346029735408064</v>
+        <v>0.3429777628444581</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.414024764549114</v>
+        <v>0.4097025286110231</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6223585194605048</v>
+        <v>0.6324589216581533</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6137093986617369</v>
+        <v>0.5973211741847565</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4914651789338523</v>
+        <v>0.5094294019635294</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4636394572542888</v>
+        <v>0.4494601083159815</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7023195162289066</v>
+        <v>0.6915636986788539</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5286883840717679</v>
+        <v>0.535167351161536</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5192453678753834</v>
+        <v>0.5260533219309718</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4008430215057873</v>
+        <v>0.4040808574650983</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6313934935803733</v>
+        <v>0.6345824791008812</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5343168833794213</v>
+        <v>0.5367157412529905</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4855929118064314</v>
+        <v>0.4826232098870932</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.4742392080811376</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.3569120569514512</v>
+        <v>0.3569120569514513</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2626215255836393</v>
+        <v>0.262846311256496</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4506069967745459</v>
+        <v>0.4508027737273219</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3913341933720618</v>
+        <v>0.3901387357805811</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2514677385648332</v>
+        <v>0.2466287568992557</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2232114200928635</v>
+        <v>0.2113216443525894</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3368711968204472</v>
+        <v>0.3401968221886053</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3831687009427888</v>
+        <v>0.3941034532170798</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3184850226790581</v>
+        <v>0.3039912015373993</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2695518511471152</v>
+        <v>0.2708542555199954</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4384762766497588</v>
+        <v>0.4479346988916011</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4151988519170855</v>
+        <v>0.4111449628966253</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2885444930179661</v>
+        <v>0.2848270016667656</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3813741506925196</v>
+        <v>0.3773383348165515</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5745857947753842</v>
+        <v>0.576156531060492</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5306635467741582</v>
+        <v>0.530421382806549</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4336656937012641</v>
+        <v>0.4260404222511044</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5062650085618424</v>
+        <v>0.5006747307809341</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5554313517093833</v>
+        <v>0.5588730020907596</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6718906558920579</v>
+        <v>0.6758053703547249</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6117492845578693</v>
+        <v>0.6121698673273788</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.381833912753707</v>
+        <v>0.3809321671199337</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5514370278687754</v>
+        <v>0.556076831613829</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5356678305254572</v>
+        <v>0.5349042414946302</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4420943129475819</v>
+        <v>0.443614635314176</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.4434302816484169</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.4063077953613252</v>
+        <v>0.4063077953613251</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2710206118101364</v>
+        <v>0.2701165500986102</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4194025044968065</v>
+        <v>0.4226103316956842</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3787220697198571</v>
+        <v>0.3838215131860468</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3101283471144015</v>
+        <v>0.3080934390453759</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2999472943970497</v>
+        <v>0.3029791737980022</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4800114589349068</v>
+        <v>0.4767461497901901</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4072896675509078</v>
+        <v>0.4056588948385884</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4096021293136414</v>
+        <v>0.4106001487781883</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2903455508793936</v>
+        <v>0.2918604581572988</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4570571564780144</v>
+        <v>0.4551253533439545</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4100464055113887</v>
+        <v>0.4102471162890807</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3664914210394759</v>
+        <v>0.3637080551093491</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3460783392475263</v>
+        <v>0.346584048487471</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5122575966475579</v>
+        <v>0.5161535724151316</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4756333496426195</v>
+        <v>0.4779448912208004</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4250000960980057</v>
+        <v>0.4223380036299844</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4205338744933403</v>
+        <v>0.425507007054119</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.605865857769044</v>
+        <v>0.5984055031892869</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5175601949743248</v>
+        <v>0.5155307385461385</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5272607513451162</v>
+        <v>0.5304884714925794</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3537377373872059</v>
+        <v>0.354632356416458</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5304413442481249</v>
+        <v>0.528311990925916</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4794406057885683</v>
+        <v>0.4856546423793114</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4515780973229449</v>
+        <v>0.4494632240860046</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.4473081572038874</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.4190817892320021</v>
+        <v>0.419081789232002</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.3012856020552422</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2080250241064</v>
+        <v>0.2057887134948541</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2999427410704132</v>
+        <v>0.2991866687540181</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2990948140100233</v>
+        <v>0.3012732286525598</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.244945853718448</v>
+        <v>0.2445881931287945</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2645599616868921</v>
+        <v>0.2605344819656836</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4514849574090467</v>
+        <v>0.4500114478870995</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3792001091209721</v>
+        <v>0.3820499515834875</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3533198790186048</v>
+        <v>0.3525644139654451</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2519838582534699</v>
+        <v>0.2561157378711023</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3915260227363496</v>
+        <v>0.3910951502068539</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3551196457140783</v>
+        <v>0.36036702075155</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.319307282516648</v>
+        <v>0.3148897840269488</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3435665854062161</v>
+        <v>0.3421470621646369</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4274408740710636</v>
+        <v>0.4269421905291464</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4228774533504061</v>
+        <v>0.4298782879955154</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4098461086434325</v>
+        <v>0.4071322350241919</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4024975144836619</v>
+        <v>0.4071253306807752</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5970010778125734</v>
+        <v>0.5903586282965267</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5188548749333651</v>
+        <v>0.5164590638452474</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4951948821607953</v>
+        <v>0.4878407716980532</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3506650751502449</v>
+        <v>0.3550633961555835</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4902685440426838</v>
+        <v>0.4900922817785878</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4471126547127175</v>
+        <v>0.4542979873996267</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4258672434407382</v>
+        <v>0.4215699330164169</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.3536928895007153</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.3853417820808829</v>
+        <v>0.3853417820808828</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2322809464461529</v>
@@ -1377,7 +1377,7 @@
         <v>0.3303172831184742</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.3212699738875178</v>
+        <v>0.3212699738875177</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02165316377070111</v>
+        <v>0.02301763119169317</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1118970438464212</v>
+        <v>0.1225892612752876</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1786904137529699</v>
+        <v>0.1812756923199616</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2583165529014586</v>
+        <v>0.2544980731301214</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3303685557552226</v>
+        <v>0.3260238531981907</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.282320345953093</v>
+        <v>0.2877369216352552</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2894635405057772</v>
+        <v>0.2887410596223449</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1869130636125042</v>
+        <v>0.1800969894222664</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2937668591623952</v>
+        <v>0.2928873564678616</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2778211722348867</v>
+        <v>0.269859535669329</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2346924871863436</v>
+        <v>0.2361220301830076</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.130377691328898</v>
+        <v>0.1313871212092218</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3127634139874984</v>
+        <v>0.3175013957240461</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3843063965069237</v>
+        <v>0.39055946123645</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3903081635631095</v>
+        <v>0.3746050318141036</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3956072516242844</v>
+        <v>0.3993919949100549</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4913386719286489</v>
+        <v>0.4884355725257808</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4312990554378586</v>
+        <v>0.4394254666066322</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4917014813738989</v>
+        <v>0.4963578565860514</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2871790651909602</v>
+        <v>0.288390327955415</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4169583183200252</v>
+        <v>0.4159586146831623</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3978676998039818</v>
+        <v>0.3920169666657645</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4205449264927468</v>
+        <v>0.4197819641268767</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.4304536580205028</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3576391003455797</v>
+        <v>0.3576391003455798</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.3492024685193055</v>
@@ -1501,7 +1501,7 @@
         <v>0.444054082612383</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.4422804713758723</v>
+        <v>0.4422804713758722</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.3217109466362632</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2786048347381277</v>
+        <v>0.2796839352831189</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4374430187266132</v>
+        <v>0.4354640964670948</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3994985220488304</v>
+        <v>0.401214021875598</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3252355433452192</v>
+        <v>0.3243851387059257</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.316748267519099</v>
+        <v>0.3127725012749094</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4838550629712459</v>
+        <v>0.4782800033068915</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4093270889620211</v>
+        <v>0.4105270849277842</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4051161210422112</v>
+        <v>0.4074398670250294</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3019030025806843</v>
+        <v>0.3023262324488888</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.4624307860442842</v>
+        <v>0.4617817459598096</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4136543947614562</v>
+        <v>0.416360423771235</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3714338044532534</v>
+        <v>0.3702277032509774</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3292295935687204</v>
+        <v>0.3291628811081593</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4936117421548511</v>
+        <v>0.4924888393295644</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4602779856163347</v>
+        <v>0.4607726146618171</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3974654231970502</v>
+        <v>0.3991923272855421</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3828027907329526</v>
+        <v>0.3805212330648878</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.5463238704204896</v>
+        <v>0.5445205164082414</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4774363628215558</v>
+        <v>0.4762806211480431</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4760447384976907</v>
+        <v>0.478473891139217</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3428436163390293</v>
+        <v>0.340768526999678</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.504753075495658</v>
+        <v>0.5070806454521475</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.4578498862949006</v>
+        <v>0.4595716115720979</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4208381315888757</v>
+        <v>0.4187870391243984</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>53878</v>
+        <v>55010</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>70899</v>
+        <v>69833</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>49095</v>
+        <v>48881</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>33852</v>
+        <v>34330</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>25750</v>
+        <v>25626</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>41758</v>
+        <v>42526</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>27512</v>
+        <v>28475</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>27747</v>
+        <v>27496</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>84090</v>
+        <v>85219</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>119183</v>
+        <v>118271</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>81450</v>
+        <v>82241</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>66033</v>
+        <v>65247</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>79143</v>
+        <v>78451</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>95762</v>
+        <v>95876</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>69265</v>
+        <v>70174</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>53027</v>
+        <v>53103</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>42956</v>
+        <v>43651</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>62570</v>
+        <v>63450</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>43734</v>
+        <v>44516</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>41723</v>
+        <v>41504</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>117715</v>
+        <v>116113</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>151945</v>
+        <v>151273</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>109441</v>
+        <v>109797</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>89488</v>
+        <v>90639</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>32984</v>
+        <v>32700</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>65295</v>
+        <v>68211</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>41860</v>
+        <v>41719</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>27138</v>
+        <v>27655</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>37851</v>
+        <v>37106</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>63992</v>
+        <v>63234</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>33223</v>
+        <v>33408</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>30478</v>
+        <v>31291</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>75896</v>
+        <v>76645</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>138736</v>
+        <v>137892</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>79486</v>
+        <v>81492</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>62674</v>
+        <v>64243</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>55963</v>
+        <v>55379</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>93650</v>
+        <v>95170</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>64190</v>
+        <v>62476</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>46591</v>
+        <v>48294</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>61167</v>
+        <v>59296</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>86939</v>
+        <v>85607</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>52899</v>
+        <v>53547</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>48035</v>
+        <v>48665</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>107063</v>
+        <v>107928</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>173169</v>
+        <v>174043</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>109348</v>
+        <v>109839</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>90956</v>
+        <v>90400</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>66697</v>
+        <v>66754</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>122538</v>
+        <v>122591</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>84817</v>
+        <v>84558</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>32091</v>
+        <v>31473</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>9845</v>
+        <v>9321</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>28718</v>
+        <v>29001</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>20118</v>
+        <v>20692</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>8705</v>
+        <v>8309</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>80346</v>
+        <v>80734</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>156618</v>
+        <v>159996</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>111789</v>
+        <v>110697</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>44709</v>
+        <v>44133</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>96856</v>
+        <v>95831</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>156252</v>
+        <v>156679</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>115015</v>
+        <v>114962</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>55342</v>
+        <v>54369</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>22329</v>
+        <v>22083</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>47349</v>
+        <v>47643</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>35276</v>
+        <v>35482</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>16722</v>
+        <v>16733</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>113814</v>
+        <v>113546</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>196966</v>
+        <v>198623</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>144224</v>
+        <v>144018</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>68502</v>
+        <v>68737</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>152512</v>
+        <v>152003</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>209446</v>
+        <v>211048</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>162924</v>
+        <v>165118</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>112667</v>
+        <v>111928</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>71853</v>
+        <v>72580</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>134741</v>
+        <v>133825</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>128627</v>
+        <v>128112</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>94443</v>
+        <v>94673</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>232940</v>
+        <v>234156</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>356548</v>
+        <v>355041</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>305897</v>
+        <v>306047</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>217646</v>
+        <v>215993</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>194750</v>
+        <v>195034</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>255817</v>
+        <v>257762</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>204615</v>
+        <v>205609</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>154399</v>
+        <v>153432</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>100740</v>
+        <v>101931</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>170069</v>
+        <v>167975</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>163452</v>
+        <v>162811</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>121572</v>
+        <v>122316</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>283799</v>
+        <v>284517</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>413794</v>
+        <v>412133</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>357666</v>
+        <v>362302</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>268176</v>
+        <v>266920</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>39030</v>
+        <v>38611</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>65154</v>
+        <v>64989</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>72149</v>
+        <v>72674</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>44025</v>
+        <v>43961</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>47213</v>
+        <v>46494</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>97271</v>
+        <v>96953</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>81564</v>
+        <v>82177</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>61017</v>
+        <v>60887</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>92247</v>
+        <v>93759</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>169400</v>
+        <v>169213</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>162047</v>
+        <v>164442</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>112533</v>
+        <v>110976</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>64461</v>
+        <v>64195</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>92849</v>
+        <v>92740</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>102008</v>
+        <v>103697</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>73663</v>
+        <v>73175</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>71829</v>
+        <v>72655</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>128621</v>
+        <v>127190</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>111603</v>
+        <v>111087</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>85519</v>
+        <v>84249</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>128372</v>
+        <v>129982</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>212122</v>
+        <v>212046</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>204025</v>
+        <v>207304</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>150088</v>
+        <v>148573</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1899</v>
+        <v>2019</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>6999</v>
+        <v>7668</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>12858</v>
+        <v>13044</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>43700</v>
+        <v>43054</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>54243</v>
+        <v>53530</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>48568</v>
+        <v>49499</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>26100</v>
+        <v>26035</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>48013</v>
+        <v>46263</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>66609</v>
+        <v>66410</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>67784</v>
+        <v>65842</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>26663</v>
+        <v>26825</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>11435</v>
+        <v>11523</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>19564</v>
+        <v>19860</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>27653</v>
+        <v>28103</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>9148</v>
+        <v>8780</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>66925</v>
+        <v>67566</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>80673</v>
+        <v>80196</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>74196</v>
+        <v>75594</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>44335</v>
+        <v>44755</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>73769</v>
+        <v>74081</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>94542</v>
+        <v>94315</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>97074</v>
+        <v>95646</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>47777</v>
+        <v>47690</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>383738</v>
+        <v>385224</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>590496</v>
+        <v>587825</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>467823</v>
+        <v>469832</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>287234</v>
+        <v>286483</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>270313</v>
+        <v>266920</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>468496</v>
+        <v>463097</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>377391</v>
+        <v>378497</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>277554</v>
+        <v>279146</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>673472</v>
+        <v>674416</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1071978</v>
+        <v>1070473</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>865781</v>
+        <v>871444</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>582512</v>
+        <v>580621</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>453466</v>
+        <v>453374</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>666318</v>
+        <v>664802</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>538997</v>
+        <v>539577</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>351024</v>
+        <v>352549</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>326684</v>
+        <v>324737</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>528981</v>
+        <v>527235</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>440186</v>
+        <v>439121</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>326149</v>
+        <v>327813</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>764801</v>
+        <v>760172</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1170087</v>
+        <v>1175482</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>958282</v>
+        <v>961886</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>659992</v>
+        <v>656775</v>
       </c>
     </row>
     <row r="32">
